--- a/Recursos/pob_es_2019.xlsx
+++ b/Recursos/pob_es_2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orlando/Documents/GitHub/TFM-EasyMoney/Recursos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\DataScience\TFM_\TFM-EasyMoney\Recursos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C68FD760-7773-C54E-8977-7F1B6FF0800C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C1CEA7-B99F-4B4A-9528-72637160F472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="21380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="POBLACION ES 2019" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>02</t>
   </si>
@@ -354,6 +354,12 @@
   </si>
   <si>
     <t>VALENCIA</t>
+  </si>
+  <si>
+    <t>pensidad de población</t>
+  </si>
+  <si>
+    <t>contrato total de productos</t>
   </si>
 </sst>
 </file>
@@ -422,24 +428,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -776,21 +779,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.83203125" style="2"/>
+    <col min="1" max="1" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
@@ -800,584 +806,590 @@
       <c r="C1" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="D1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>331549</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>388167</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>1858683</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>716820</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>1022800</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>157640</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>673559</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>1149460</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>5664579</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>1152651</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>356958</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>394151</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>1240155</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>581078</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>579962</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>495761</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>782979</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>1119596</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>196329</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>723576</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>771044</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>914678</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>257762</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <v>521870</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <v>220461</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <v>633564</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <v>460001</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <v>434930</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="3">
         <v>329587</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="3">
         <v>6663394</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="3">
         <v>1661785</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="3">
         <v>1493898</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="3">
         <v>654214</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="3">
         <v>307651</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="3">
         <v>160980</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="3">
         <v>1120406</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="3">
         <v>942665</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="3">
         <v>316798</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="3">
         <v>330119</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="3">
         <v>1032983</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="3">
         <v>153129</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="3">
         <v>1942389</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="3">
         <v>88636</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="3">
         <v>804664</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="3">
         <v>134137</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="3">
         <v>694844</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="3">
         <v>2565124</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="3">
         <v>519546</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="3">
         <v>172539</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="3">
         <v>964693</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52" s="3">
         <v>84777</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="3">
         <v>86487</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="5"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="5"/>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Recursos/pob_es_2019.xlsx
+++ b/Recursos/pob_es_2019.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orlando/Documents/GitHub/TFM-EasyMoney/Recursos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB47B3D5-C0D4-8E44-9190-98AE10E73D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE05EB7-1C75-F14A-A9E4-026FFEFD8115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3940" yWindow="4160" windowWidth="27960" windowHeight="16900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5500" yWindow="3000" windowWidth="27960" windowHeight="16900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="POBLACION ES 2019" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'POBLACION ES 2019'!$A$1:$D$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -249,51 +252,27 @@
     <t>Albacete</t>
   </si>
   <si>
-    <t>Almería</t>
-  </si>
-  <si>
     <t>Asturias</t>
   </si>
   <si>
-    <t>Ávila</t>
-  </si>
-  <si>
     <t>Badajoz</t>
   </si>
   <si>
     <t>Barcelona</t>
   </si>
   <si>
-    <t>Bizkaia</t>
-  </si>
-  <si>
     <t>Burgos</t>
   </si>
   <si>
-    <t>Cáceres</t>
-  </si>
-  <si>
-    <t>Cádiz</t>
-  </si>
-  <si>
     <t>Cantabria</t>
   </si>
   <si>
     <t>Ciudad Real</t>
   </si>
   <si>
-    <t>Córdoba</t>
-  </si>
-  <si>
     <t>Cuenca</t>
   </si>
   <si>
-    <t>Gipuzkoa</t>
-  </si>
-  <si>
-    <t>Girona</t>
-  </si>
-  <si>
     <t>Granada</t>
   </si>
   <si>
@@ -306,33 +285,18 @@
     <t>Huesca</t>
   </si>
   <si>
-    <t>Jaén</t>
-  </si>
-  <si>
-    <t>León</t>
-  </si>
-  <si>
-    <t>Lleida</t>
-  </si>
-  <si>
     <t>Lugo</t>
   </si>
   <si>
     <t>Madrid</t>
   </si>
   <si>
-    <t>Málaga</t>
-  </si>
-  <si>
     <t>Murcia</t>
   </si>
   <si>
     <t>Navarra</t>
   </si>
   <si>
-    <t>Ourense</t>
-  </si>
-  <si>
     <t>Palencia</t>
   </si>
   <si>
@@ -378,28 +342,67 @@
     <t>Alicante</t>
   </si>
   <si>
-    <t>Álava</t>
-  </si>
-  <si>
-    <t>Baleares</t>
-  </si>
-  <si>
-    <t>Castellón</t>
-  </si>
-  <si>
-    <t>Coruña</t>
-  </si>
-  <si>
-    <t>Palmas</t>
-  </si>
-  <si>
-    <t>Rioja</t>
-  </si>
-  <si>
-    <t>Tenerife</t>
-  </si>
-  <si>
     <t>Valencia</t>
+  </si>
+  <si>
+    <t>Alava</t>
+  </si>
+  <si>
+    <t>Almeria</t>
+  </si>
+  <si>
+    <t>Avila</t>
+  </si>
+  <si>
+    <t>Islas Baleares</t>
+  </si>
+  <si>
+    <t>Caceres</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>Castellon</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>La Coruña</t>
+  </si>
+  <si>
+    <t>Gerona</t>
+  </si>
+  <si>
+    <t>Guipuzcoa</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>Leon</t>
+  </si>
+  <si>
+    <t>Lerida</t>
+  </si>
+  <si>
+    <t>La Rioja</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>Orense</t>
+  </si>
+  <si>
+    <t>Las Palmas</t>
+  </si>
+  <si>
+    <t>Santa Cruz de Tenerife</t>
+  </si>
+  <si>
+    <t>Vizcaya</t>
   </si>
 </sst>
 </file>
@@ -497,14 +500,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -843,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -872,574 +875,574 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="5">
+        <v>327682.47360299999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C3" s="5">
         <v>389527.90365699999</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1862780.1634160001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="5">
+        <v>706871.00392100005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="5">
+        <v>159259.56643599999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="5">
+        <v>672492.98141200002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1188220.2491049999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="5">
+        <v>5575203.3234670004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="5">
+        <v>355428.851967</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="5">
+        <v>392930.79714400001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1249739.39708</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="5">
+        <v>571600.51870000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="5">
+        <v>495106.11943800002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="5">
+        <v>783866.65124200005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1122006.5394669999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="5">
+        <v>199628.18577000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="5">
+        <v>757496.70430700004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="5">
+        <v>919699.90754100005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="5">
+        <v>258889.89432699999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="5">
+        <v>713007.01614700002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="5">
+        <v>524576.43107599998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="5">
+        <v>219239.20676900001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="6">
-        <v>1862780.1634160001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="C24" s="5">
+        <v>632027.34040700004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="5">
+        <v>462495.523117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="5">
+        <v>431183.018316</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="5">
+        <v>313571.15517099999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="5">
+        <v>329586.58466599998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="5">
+        <v>6641648.3948910004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="5">
+        <v>1660984.3722930001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="5">
+        <v>1487663.122956</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="5">
+        <v>649946.066567</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="5">
+        <v>307840.98048700002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="6">
-        <v>706871.00392100005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C5" s="6">
-        <v>327682.47360299999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="6">
+      <c r="C34" s="5">
         <v>1022205.164301</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="6">
-        <v>159259.56643599999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="6">
-        <v>672492.98141200002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="6">
-        <v>1188220.2491049999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="5">
+        <v>160701.29551</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="5">
+        <v>1139383.481015</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="5">
+        <v>941007.13930000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="5">
+        <v>332233.86811799998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" s="5">
+        <v>1067517.667871</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="6">
-        <v>5575203.3234670004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="C40" s="5">
+        <v>581641.34974199999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="5">
+        <v>154094.68711999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="5">
+        <v>1949639.2611100001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="5">
+        <v>89501.463661000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" s="5">
+        <v>802546.59461899998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" s="5">
+        <v>133298.18279399999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46" s="5">
+        <v>691724.76672099996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47" s="5">
+        <v>2540588.4599239998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C48" s="5">
+        <v>520385.45294400002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="6">
+      <c r="B49" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" s="5">
         <v>1137190.461442</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="6">
-        <v>355428.851967</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="6">
-        <v>392930.79714400001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="6">
-        <v>1249739.39708</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="6">
-        <v>581641.34974199999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C16" s="6">
-        <v>571600.51870000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="6">
-        <v>495106.11943800002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="6">
-        <v>783866.65124200005</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" s="6">
-        <v>1122006.5394669999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="6">
-        <v>199628.18577000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="6">
-        <v>713007.01614700002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="6">
-        <v>757496.70430700004</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="6">
-        <v>919699.90754100005</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="6">
-        <v>258889.89432699999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" s="6">
-        <v>524576.43107599998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" s="6">
-        <v>219239.20676900001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C27" s="6">
-        <v>632027.34040700004</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" s="6">
-        <v>462495.523117</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C29" s="6">
-        <v>431183.018316</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C30" s="6">
-        <v>329586.58466599998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C31" s="6">
-        <v>6641648.3948910004</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C32" s="6">
-        <v>1660984.3722930001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="4" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C33" s="6">
-        <v>1487663.122956</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="4" t="s">
+      <c r="C50" s="5">
+        <v>173632.38001699999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="6">
-        <v>649946.066567</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="4" t="s">
+      <c r="C51" s="5">
+        <v>968048.92028800002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="6">
-        <v>307840.98048700002</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="4" t="s">
+      <c r="C52" s="5">
+        <v>84829.419326999996</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C36" s="6">
-        <v>160701.29551</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C37" s="6">
-        <v>1139383.481015</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C38" s="6">
-        <v>941007.13930000004</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C39" s="6">
-        <v>313571.15517099999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C40" s="6">
-        <v>332233.86811799998</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C41" s="6">
-        <v>1067517.667871</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C42" s="6">
-        <v>154094.68711999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C43" s="6">
-        <v>1949639.2611100001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C44" s="6">
-        <v>89501.463661000002</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C45" s="6">
-        <v>802546.59461899998</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C46" s="6">
-        <v>133298.18279399999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C47" s="6">
-        <v>691724.76672099996</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C48" s="6">
-        <v>2540588.4599239998</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C49" s="6">
-        <v>520385.45294400002</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C50" s="6">
-        <v>173632.38001699999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C51" s="6">
-        <v>968048.92028800002</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C52" s="6">
-        <v>84829.419326999996</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C53" s="6">
+      <c r="C53" s="5">
         <v>84689.417312000005</v>
       </c>
     </row>
@@ -1450,6 +1453,11 @@
       <c r="A58" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D53">
+      <sortCondition ref="A1:A53"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
